--- a/P0052/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0052/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0052\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0052/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C897204-8EFA-4187-B980-38FA97915745}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -95,22 +95,25 @@
     <t>P0052</t>
   </si>
   <si>
-    <t>PR001</t>
+    <t>PR0001</t>
   </si>
   <si>
     <t xml:space="preserve">INFORME ANALISIS DE INFORMACIÓN SECUNDARIA LA MOJANA. </t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 3. Análisis de información secundaria/INFORME ANALISIS DE INFORMACIÓN SECUNDARIA LA MOJANA.docx</t>
+  </si>
+  <si>
     <t>Hidroceron ltda</t>
   </si>
   <si>
-    <t>Fondo de Adaptación</t>
+    <t>Fondo Adaptación</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">El informe presenta un resumen muy corto del análisis de la información secundaria recopilada de la región de La Mojana, con el fin de realizar una caracterización hidrogeológica del área. En la información revisada se incluye estudios geológicos, hidrogeológicos, geofísicos y geoeléctricos principalemente de entidades regionales. </t>
+    <t xml:space="preserve">El informe presenta un resumen muy corto del análisis de la información secundaria recopilada de la región de La Mojana, con el fin de realizar una caracterización hidrogeológica del área. En la información revisada se incluyen estudios geológicos, hidrogeológicos, geofísicos y geoeléctricos principalemente de entidades regionales. </t>
   </si>
   <si>
     <t>Informe</t>
@@ -119,28 +122,31 @@
     <t>pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Los principales estudios hidrogeológicos que fueron tomados en cuenta son: “Estudio hidrogeológico en la zona de influencia de la Ciénaga de Ayapel”, CVS.  Información de la empresa Aguas de la Mojana S.A. E.S.P. Del análisis geofísico se revisaron los pocos sondeos eléctricos verticales (SEV) realizados por la CVS y Corpomojana. En el análisis y evaluación de pozos profundos, se encontraron registro de 78 pozos. Para el análisis de calidad de agua se encontró información para el acuífero de San Marcos y del municipio de Ayapel, se concluye que se está presentando infiltración de escorrentías superficiales a los piezómetros, se evidencia presencia de mercurio. </t>
+    <t xml:space="preserve">Los principales estudios hidrogeológicos que fueron tomados en cuenta son: “Estudio hidrogeológico en la zona de influencia de la Ciénaga de Ayapel”, CVS.  Información de la empresa Aguas de la Mojana S.A. E.S.P. Del análisis geofísico se revisaron los pocos sondeos eléctricos verticales (SEV) realizados por la CVS y Corpomojana. En el análisis y evaluación de pozos profundos, se registraron 78 pozos. Para el análisis de calidad de agua se encontró información para el acuífero de San Marcos y del municipio de Ayapel, se concluye que se está presentando infiltración de escorrentías superficiales a los piezómetros, se evidencia presencia de mercurio. </t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Es un informe muy corto que muestra de manera muy resumida el análisis de la información secundaria recopilada. Se toma poco información secundaria, únicamente información de las corporaciones y empresas prestadoras de servicio de agua. No se incluyen información científica generada por otros actores. </t>
+    <t>Es un informe muy corto que muestra de manera muy resumida el análisis de la información secundaria recopilada. Se toma poca información secundaria, únicamente información de las corporaciones y empresas prestadoras de servicio de agua. No se incluyen información científica generada por otros actores.  Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
   </si>
   <si>
     <t>Sondeos eléctricos verticales, CVS, Corpomojana, mercurio, calidad de agua.</t>
   </si>
   <si>
-    <t>PR002</t>
+    <t>PR0002</t>
   </si>
   <si>
     <t>INFORME MODELO HIDROGEOLÓGICO CONCEPTUAL LA MOJANA</t>
   </si>
   <si>
-    <t xml:space="preserve">En este informe se presenta el análisis de los aspectos considerados para la construcción del modelo hidrogeológico conceptual. Entre ellos un análisis de la geología regional y local, la caracterización hidrogeológica regional, de las formaciones del área de la Mojana y la local. Inventario de pozos profundos, Modelo hidrogeológico conceptual regional y supsuperficial. Análisis de zonas de recarga y descarga. Se presenta el mapa hidrogeológico, estimación conceptual de las direcciones de flujo subsuperficial. Se presentan conclusiones del análisis de cada capítulo a lo largo del documento. </t>
-  </si>
-  <si>
-    <t>En la geología regional se analiza la estratigrafía y se construye el mapa geológico a escala 1:250.000, en donde se define que la región de la mojana está integrada principalmente por depósitos cuaternarios. Así mismo, se construye la geología local para los depósitos cuaternarios. Se concluye que el origen de la zona de la mojana corresponde a un graben de origen fluvio-lacustre. La geología subsuperficial (hasta 240 m de profundidad) se construyó a partir de la litología de 15 pozos con registro. Se concluye que existe una gran variabilidad de la composición de los sedimentos y que primeros en los primeros 10 m de profundidad materiales arcillosos. Se presenta la clasificación de las unidades hidrogeológicas (acuífero, acuitardo, acuifuga) en los anexos el mapa. En el estudio se hizo inventario en campo, de pozos profundos y se tomaron niveles piezométricos, en algunos casos se tomaron muestra para análisis de isótopos. De los acuíferos profundos se concluye que se encuentran desconectados del ciclo hidrológico y que la recarga se produjo hace miles de años, por lo que se consideran reservas permanentes, estas aguas son la principal fuente de abastecimiento de agua para consumo humano y en algunas fincas para riego. Para la caracterización de los acuíferos subsuperficiales se utilizaron los análisis de isótopos y balance hídrico a partir de los cuales se concluyó de manera general que dada la heterogeneidad de los depósitos es poco favorable el movimiento de agua subterránea, que la principal forma de descarga es por la explotación de las aguas a través de pozos profundos y aljibes, que dado que la superficie esta cubierta predominantemente por arcillas y limos, y la falta de continuidad entre los pocos lentes de arenas y gravas, no es favorable la infiltración y recarga. La dirección de flujo de agua subterránea regional se considera casi nulo y a nivel subsuperficial se genera hacia los pozos de extracción, y en ciertas zonas en dirección S-N a través de lentes de arena.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/INFORME MODELO HIDROGEOLÓGICO CONCEPTUAL LA MOJANA.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este informe se presenta el análisis de los aspectos considerados para la construcción del modelo hidrogeológico conceptual. Entre ellos un análisis de la geología regional y local, la caracterización hidrogeológica regional, de las formaciones del área de la Mojana a nivel general y local. Inventario de pozos profundos, Modelo hidrogeológico conceptual regional y supsuperficial. Análisis de zonas de recarga y descarga. Se presenta el mapa hidrogeológico, estimación conceptual de las direcciones de flujo subsuperficial. Se presentan conclusiones del análisis de cada capítulo a lo largo del documento. </t>
+  </si>
+  <si>
+    <t>En la geología regional se analiza la estratigrafía y se construye el mapa geológico a escala 1:250.000, en donde se define que la región de la mojana está integrada principalmente por depósitos cuaternarios. Así mismo, se construye la geología local para los depósitos cuaternarios. Se concluye que el origen de la zona de la mojana corresponde a un graben de origen fluvio-lacustre. La geología subsuperficial (hasta 240 m de profundidad) se construyó a partir de la litología de 15 pozos con registro. Se concluye que existe una gran variabilidad de la composición de los sedimentos y que primeros en los primeros 10 m de profundidad materiales arcillosos. Se presenta la clasificación de las unidades hidrogeológicas (acuífero, acuitardo, acuifuga) en los anexos el mapa. En el estudio se hizo inventario en campo, de pozos profundos y se tomaron niveles piezométricos, en algunos casos se tomaron muestras para análisis de isótopos. De los acuíferos profundos se concluye que se encuentran desconectados del ciclo hidrológico y que la recarga se produjo hace miles de años, por lo que se consideran reservas permanentes, estas aguas son la principal fuente de abastecimiento de agua para consumo humano y en algunas fincas para riego. Para la caracterización de los acuíferos subsuperficiales se utilizaron los análisis de isótopos y balance hídrico a partir de los cuales se concluyó de manera general que dada la heterogeneidad de los depósitos es poco favorable el movimiento de agua subterránea, que la principal forma de descarga es por la explotación de las aguas a través de pozos profundos y aljibes, que dado que la superficie esta cubierta predominantemente por arcillas y limos, y la falta de continuidad entre los pocos lentes de arenas y gravas, no es favorable la infiltración y recarga. La dirección y el flujo de agua subterránea regional se consideran casi nulos y a nivel subsuperficial se genera hacia los pozos de extracción, y en ciertas zonas en dirección S-N a través de lentes de arena.</t>
   </si>
   <si>
     <t>Si</t>
@@ -149,34 +155,40 @@
     <t>Anexo producto 4 hidrogeologia</t>
   </si>
   <si>
-    <t>Para obtener un mejor acercamiento conceptual de la interacción de las aguas superficiales y subterráneas subsuperficiales, como se meciona en el estudio, se requiere de más datos de nivel, pruebas de bombeo y aplicación de técnicas geofñisicas. El estudio presenta una aproximación al entendimiento de las interacciones pero requiere de mayores análisis para ser concluyente sobre la casi nula interacción.  El documento no relaciona anexos como tal, sin embargo dentro del producto se encuentra una carpeta denominada anexo producto 4 hidrogeología con mapas usados como insumos para el modelo conceptual.</t>
+    <t>Para obtener un mejor acercamiento conceptual de la interacción de las aguas superficiales y subterráneas subsuperficiales, como se meciona en el estudio, se requieren de más datos de nivel, pruebas de bombeo y aplicación de técnicas geofísicas. El estudio presenta una aproximación al entendimiento de las interacciones pero requiere de mayores análisis para ser concluyente sobre la casi nula interacción.  El documento no relaciona anexos como tal, sin embargo dentro del producto se encuentra una carpeta denominada anexo producto 4 hidrogeología con mapas usados como insumos para el modelo conceptual. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
   </si>
   <si>
     <t>Geología, Hidrogeología, isotopos estables, tritio, modelo hidrogeológico conceptual, dirección de flujo, conexión agua superficial agua subterránea, acuidero subsuperficial, modelo regional, modelo geológico, mapa geológico, mapa hidrogeológico.</t>
   </si>
   <si>
-    <t>PR003</t>
+    <t>PR0003</t>
   </si>
   <si>
     <t>INFORME ANÁLISIS DE VARIABLES DE INFILTRACIÓN Y RECARGA LA MOJANA</t>
   </si>
   <si>
-    <t xml:space="preserve">En este informe se presenta el análisis de las variables de infiltración y recarga hídrica y su articulación con el ciclo hidrológico superficial de la región de la Mojana, para este fin se interpretó la información geológica disponible, los resultados del balance hídrico realizado en el proyecto y se incluyeron los análisis de isótopos estables (oxigeno 18 y deuterio) y tritio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Del análisis de las características geológicas, se concluye que el terreno está compuesto en su mayoría por una capa de arcillas arenosas (baja permeabilidad) que limita la infiltración y recarga hacia niveles acuíferos subsuperficiales y profundos, lo mismo ocurre para la recarga por precipitación. Sólo en algunas zonas, con niveles arenosos se favorece la recarga y la infiltración, pero la discontinuidad lateral y en profundidad los deja como lentes de agua aislados. Por las características hidrográficas se concluye que las ciénagas se conservan con agua porque están sobre depósitos arcillosos que impiden que el agua se infiltre a través del subsuelo. El balance hídrico indica que no hay infiltración local en la cuenca local sino un aporte de cuencas aledañas no identificadas. El resultado del análisis isotópico se presenta en otro documento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se concuerda con el estudio que para establecer con mayor precisión la conexión entre el agua de las ciénagas y el agua subterránea se requiere disponer de datos para establecer correlaciones entre los niveles de los pozos y los niveles de las ciénagas. En el estudio no se hace la verificación de parámetros hidráulicos ni modelo hidrogeológicos numéricos que validen las conclusiones realizadas. No se presenta en detalle el balance hídrico. Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción. </t>
-  </si>
-  <si>
-    <t>Interacción agua superficial agua subterránea, infiltración, balance hídrico, analisis de recarga</t>
-  </si>
-  <si>
-    <t>PR004</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 5. Análsis de infiltración y recarga/INFORME ANÁLISIS DE VARIABLES DE INFILTRACIÓN Y RECARGA LA MOJANA.docx</t>
+  </si>
+  <si>
+    <t>En este informe se presenta el análisis de las variables de infiltración y recarga hídrica y su articulación con el ciclo hidrológico superficial de la región de la Mojana, para este fin se interpretó la información geológica disponible, los resultados del balance hídrico realizado en el proyecto y se incluyeron los análisis de isótopos estables (oxigeno 18 y deuterio) y tritio. Este documento, se construye en cumplimiento del contrato N° 286 de 2013.</t>
+  </si>
+  <si>
+    <t>El documento presenta el análisis de las características geológicas e hidrográficas de la región de La Mojana. De este análisis se concluye que el terreno está compuesto en su mayoría por una capa de arcillas arenosas (baja permeabilidad) que limita la infiltración y recarga hacia niveles acuíferos subsuperficiales y profundos, lo mismo ocurre para la recarga por precipitación. Sólo en algunas zonas, con niveles arenosos se favorece la recarga y la infiltración, pero la discontinuidad lateral y en profundidad los deja como lentes de agua aislados. Por las características hidrográficas se concluye que las ciénagas se conservan con agua porque están sobre depósitos arcillosos que impiden que el agua se infiltre a través del subsuelo. Por otro lado, el documento también contiene el balance hídrico de la región. Este balance indica que no hay infiltración local en la cuenca local sino un aporte de cuencas aledañas no identificadas.</t>
+  </si>
+  <si>
+    <t>Se concuerda con el estudio que para establecer con mayor precisión la conexión entre el agua de las ciénagas y el agua subterránea se requiere disponer de datos para establecer correlaciones entre los niveles de los pozos y los niveles de las ciénagas. En el estudio no se hace la verificación de parámetros hidráulicos ni modelo hidrogeológicos numéricos que validen las conclusiones realizadas. No se presenta en detalle el balance hídrico. Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción.  Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
+  </si>
+  <si>
+    <t>Interacción agua superficial agua subterránea, infiltración, balance hídrico, análisis de recarga</t>
+  </si>
+  <si>
+    <t>PR0004</t>
   </si>
   <si>
     <t>INFORME FINAL LA MOJANA 2015</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/INFORME FINAL LA MOJANA 2015.docx</t>
   </si>
   <si>
     <t>Se presenta el informe final de la caracterización hidrogeológica de la región de La Mojana con el fin de incorporarlos en la modelación hidrodinámica de la Mojana. Se hace principal énfasis en entender las interacciones de los cuerpos de agua superficial y subsuperficial. Este documento contiene la compilación de 4 informes parciales, Informe análisis de información secundaria, Informe análisis de variables de infiltración y recarga, Informe análisis isotópicos e Informe modelo Hidrogeológico Conceptual de La Mojana. Finalmente se adicionan conclusiones y recomendaciones.</t>
@@ -190,54 +202,42 @@
 Columnas litológicas - anexo 4</t>
   </si>
   <si>
-    <t>No se presentan los anexos: Análisis fisicoquimico - Anexo2, Fichas de pozos - anexo 3, Columnas litológicas - anexo 4, El estudio presentado no contempla pruebas de bombeo y monitoreo en pozos de observación para la determinación y análisis de parámetros hidráulicos como transmisividad, conductividad, coeficiente de almacenamiento.  Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción.</t>
+    <t>No se presentan los anexos: Análisis fisicoquimico - Anexo2, Fichas de pozos - anexo 3, Columnas litológicas - anexo 4, El estudio presentado no contempla pruebas de bombeo y monitoreo en pozos de observación para la determinación y análisis de parámetros hidráulicos como transmisividad, conductividad, coeficiente de almacenamiento.  Se considera valiosos los resultados obtenidos, pero son una aproximación al conocimiento de la interacción. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
   </si>
   <si>
     <t>Geología, Hidrogeología, isotopos estables, tritio, modelo hidrogeológico conceptual, dirección de flujo, conexión agua superficial agua subterránea, acuífero subsuperficial, modelo regional, modelo geológico, mapa geológico, mapa hidrogeológico.</t>
   </si>
   <si>
-    <t>PR005</t>
+    <t>PR0005</t>
   </si>
   <si>
     <t>INFORME ANÁLISIS ISOTÓPICOS</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/INFORME ANÁLISIS ISOTÓPICOS.docx</t>
+  </si>
+  <si>
     <t>El informe presenta el análisis de los muestreos de isótopos realizados en la región de La Mojana, con el propósito de investigar la interacción entre el agua superficial y el agua subsuperficial. Se analizan los isótopos estables Deuterio y O18, tritio. Se realizan unas conclusiones para la construcción del modelo hidrogeológico conceptual y apoyo a los modelos hidrodinámicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles acuíferos entre 60 y 250 m, es decir, no se considera que las aguas tengas infiltración actual. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de Oxigeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis de concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. _x000D_
-</t>
-  </si>
-  <si>
-    <t>Anexo analisis isotopicos</t>
-  </si>
-  <si>
-    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isótopos, tritio, deuterio,oxigeno 18, conexion agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiaoctivos, modelo hidrogeologico conceptual, infiltración. </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 3. Análisis de información secundaria/INFORME ANALISIS DE INFORMACIÓN SECUNDARIA LA MOJANA.docx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/INFORME MODELO HIDROGEOLÓGICO CONCEPTUAL LA MOJANA.docx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 5. Análsis de infiltración y recarga/INFORME ANÁLISIS DE VARIABLES DE INFILTRACIÓN Y RECARGA LA MOJANA.docx"</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/INFORME FINAL LA MOJANA 2015.docx"</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/INFORME ANÁLISIS ISOTÓPICOS.docx"</t>
+    <t xml:space="preserve">El informe se divide en las siguientes secciones: 1) Introducción, en esta sección se establece brevemente el contexto del informe, los datos que presenta y su objetivo principal. 2) Técnicas isotópica, en esta sección se comenta las metodologías de los muestreos y análisis realizados para isotopos radiactivos (Análisis de tritio) y estables (Oxiqueno-18 e Hidrogeno-2), además, presenta los resultados del informe y su interpretación. Entre los resultados obtenidos se destaca que, para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles acuíferos entre 60 y 250 m, es decir, no se considera que las aguas tengas infiltración actual. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de Oxígeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis de concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Tritio resultados.pdf"</t>
+  </si>
+  <si>
+    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
+  </si>
+  <si>
+    <t>Isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiactivos, modelo hidrogeológico conceptual, infiltración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,30 +335,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -670,15 +668,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -686,10 +675,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,26 +709,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,10 +1000,10 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -1016,340 +1020,340 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="P6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="Q6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1362,6 +1366,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1505,37 +1518,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0052/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0052/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0052/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C897204-8EFA-4187-B980-38FA97915745}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63BADE4-94B0-48DC-B6F9-5E129AAC4063}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -223,21 +223,21 @@
     <t xml:space="preserve">El informe se divide en las siguientes secciones: 1) Introducción, en esta sección se establece brevemente el contexto del informe, los datos que presenta y su objetivo principal. 2) Técnicas isotópica, en esta sección se comenta las metodologías de los muestreos y análisis realizados para isotopos radiactivos (Análisis de tritio) y estables (Oxiqueno-18 e Hidrogeno-2), además, presenta los resultados del informe y su interpretación. Entre los resultados obtenidos se destaca que, para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles acuíferos entre 60 y 250 m, es decir, no se considera que las aguas tengas infiltración actual. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de Oxígeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis de concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. </t>
   </si>
   <si>
+    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
+  </si>
+  <si>
+    <t>Isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiactivos, modelo hidrogeológico conceptual, infiltración.</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx
-s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Tritio resultados.pdf"</t>
-  </si>
-  <si>
-    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
-  </si>
-  <si>
-    <t>Isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiactivos, modelo hidrogeológico conceptual, infiltración.</t>
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Tritio resultados.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,12 +352,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -668,29 +673,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -709,7 +714,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -997,18 +1002,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1020,7 +1025,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1346,15 +1351,18 @@
       <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1366,15 +1374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1518,10 +1517,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P0052/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0052/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0052/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63BADE4-94B0-48DC-B6F9-5E129AAC4063}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{3A487153-9371-44EC-9CC3-6777EED134F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532F25D0-D007-409C-B629-73B23BFFCCC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Informe</t>
   </si>
   <si>
-    <t>pdf</t>
+    <t>docx</t>
   </si>
   <si>
     <t xml:space="preserve">Los principales estudios hidrogeológicos que fueron tomados en cuenta son: “Estudio hidrogeológico en la zona de influencia de la Ciénaga de Ayapel”, CVS.  Información de la empresa Aguas de la Mojana S.A. E.S.P. Del análisis geofísico se revisaron los pocos sondeos eléctricos verticales (SEV) realizados por la CVS y Corpomojana. En el análisis y evaluación de pozos profundos, se registraron 78 pozos. Para el análisis de calidad de agua se encontró información para el acuífero de San Marcos y del municipio de Ayapel, se concluye que se está presentando infiltración de escorrentías superficiales a los piezómetros, se evidencia presencia de mercurio. </t>
@@ -223,21 +223,21 @@
     <t xml:space="preserve">El informe se divide en las siguientes secciones: 1) Introducción, en esta sección se establece brevemente el contexto del informe, los datos que presenta y su objetivo principal. 2) Técnicas isotópica, en esta sección se comenta las metodologías de los muestreos y análisis realizados para isotopos radiactivos (Análisis de tritio) y estables (Oxiqueno-18 e Hidrogeno-2), además, presenta los resultados del informe y su interpretación. Entre los resultados obtenidos se destaca que, para el análisis de tritio se tomaron 6 muestras de agua subterránea, los resultados indican que no existe infiltración de agua superficial hacia los niveles acuíferos entre 60 y 250 m, es decir, no se considera que las aguas tengas infiltración actual. En general se indica que la infiltración regional es muy baja con tendencia a cero. Este resultado permite concluir al estudio que la relación hidráulica de los cuerpos de agua superficial con las aguas subterráneas no es relevante en términos cuantitativos. En el análisis de Oxígeno y deuterio se analizaron 70 muestras, de las cuales 43 de pozos profundos y 27 de cuerpos de agua superficiales. Se realizan análisis e hipótesis para establecer la relación de origen de las aguas en diferentes pozos con los cuerpos de agua superficial cercanos (río, ciénaga, caño). De este análisis de concluye que el agua subterránea no tiene recarga de los cuerpos de agua superficial, sólo en algunos pozos se establece conexión con aguas superficiales. También se recomienda realizar más análisis de isótopos en diferentes periodos del año para conocer la variabilidad isotópica de las aguas y estimar tiempos de tránsito entre los puntos muestreados. </t>
   </si>
   <si>
-    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
-  </si>
-  <si>
-    <t>Isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiactivos, modelo hidrogeológico conceptual, infiltración.</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx
 s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Tritio resultados.pdf</t>
+  </si>
+  <si>
+    <t>No se muestreo agua lluvia para conocer el nivel de tritio, tal como se recomienda en el estudio se debe muestrear pozos con profundidades inferiores a los 60m, para conocer el grado de penetración de los flujos subsuperficiales. Se requiere mayor estudio para concluir que no es importante la interacción entre el agua superficial y subterránea para el modelo hidrodinámico en términos de cuantitativos. Aún no es claro el origen del agua de las ciénagas y su conexión con las aguas subterráneas. En los anexos no se presenta el mapa de la ubicación de los puntos muestreados. EN los anexos se relacionan los resultados de muestras de análisis isotópicos. Es importante indicar que los documentos aquí revisados son los folios que originalmente se encuentran contenidos en la carpeta P0032 desde donde se recomienda hacer su consulta.</t>
+  </si>
+  <si>
+    <t>Isótopos, tritio, deuterio, oxigeno 18, conexión agua superficial agua subterránea, origen del agua, isotopos estables, isotopos radiactivos, modelo hidrogeológico conceptual, infiltración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -353,7 +353,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -673,29 +672,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -714,7 +713,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1004,15 +1003,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1025,7 +1024,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1118,7 +1117,7 @@
       <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1137,7 +1136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1173,7 @@
       <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1193,7 +1192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1229,7 @@
       <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1249,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1285,7 @@
       <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1305,7 +1304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1342,7 +1341,7 @@
       <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1351,17 +1350,17 @@
       <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="C10" s="10"/>
     </row>
   </sheetData>
@@ -1527,27 +1526,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>